--- a/SchedulingData/dynamic16/pso/scheduling1_10.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_10.xlsx
@@ -466,150 +466,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>60.48</v>
+        <v>90.92</v>
       </c>
       <c r="E2" t="n">
-        <v>25.632</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>73.8</v>
+        <v>37.1</v>
       </c>
       <c r="E3" t="n">
-        <v>26.28</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73.8</v>
+        <v>37.1</v>
       </c>
       <c r="D4" t="n">
-        <v>126.5</v>
+        <v>90.52</v>
       </c>
       <c r="E4" t="n">
-        <v>22.64</v>
+        <v>23.268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60.48</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>103.94</v>
+        <v>53.48</v>
       </c>
       <c r="E5" t="n">
-        <v>22.416</v>
+        <v>26.832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>59.76</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>26.204</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>103.94</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>163.54</v>
+        <v>49.78</v>
       </c>
       <c r="E7" t="n">
-        <v>19.056</v>
+        <v>27.712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>90.92</v>
       </c>
       <c r="D8" t="n">
-        <v>54.12</v>
+        <v>137.74</v>
       </c>
       <c r="E8" t="n">
-        <v>25.788</v>
+        <v>24.016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>126.5</v>
+        <v>49.78</v>
       </c>
       <c r="D9" t="n">
-        <v>165.96</v>
+        <v>117.9</v>
       </c>
       <c r="E9" t="n">
-        <v>19.824</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>76.04000000000001</v>
+        <v>150.8</v>
       </c>
       <c r="E10" t="n">
-        <v>27.536</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>59.76</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>115.82</v>
+        <v>76.86</v>
       </c>
       <c r="E11" t="n">
-        <v>22.228</v>
+        <v>25.464</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>115.82</v>
+        <v>90.52</v>
       </c>
       <c r="D12" t="n">
-        <v>180.12</v>
+        <v>144.68</v>
       </c>
       <c r="E12" t="n">
-        <v>18.928</v>
+        <v>19.472</v>
       </c>
     </row>
     <row r="13">
@@ -675,36 +675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>117.9</v>
       </c>
       <c r="D13" t="n">
-        <v>63.08</v>
+        <v>161.24</v>
       </c>
       <c r="E13" t="n">
-        <v>26.352</v>
+        <v>20.796</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>54.12</v>
+        <v>150.8</v>
       </c>
       <c r="D14" t="n">
-        <v>131.92</v>
+        <v>212.3</v>
       </c>
       <c r="E14" t="n">
-        <v>21.588</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="15">
@@ -713,150 +713,150 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>131.92</v>
+        <v>76.86</v>
       </c>
       <c r="D15" t="n">
-        <v>177.26</v>
+        <v>139.46</v>
       </c>
       <c r="E15" t="n">
-        <v>18.684</v>
+        <v>22.344</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>63.08</v>
+        <v>53.48</v>
       </c>
       <c r="D16" t="n">
-        <v>131.5</v>
+        <v>108.68</v>
       </c>
       <c r="E16" t="n">
-        <v>22.14</v>
+        <v>22.452</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>163.54</v>
+        <v>144.68</v>
       </c>
       <c r="D17" t="n">
-        <v>209.86</v>
+        <v>217.82</v>
       </c>
       <c r="E17" t="n">
-        <v>16.064</v>
+        <v>14.768</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>180.12</v>
+        <v>108.68</v>
       </c>
       <c r="D18" t="n">
-        <v>240.44</v>
+        <v>158.82</v>
       </c>
       <c r="E18" t="n">
-        <v>15.496</v>
+        <v>19.548</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>165.96</v>
+        <v>161.24</v>
       </c>
       <c r="D19" t="n">
-        <v>250.76</v>
+        <v>206.2</v>
       </c>
       <c r="E19" t="n">
-        <v>15.444</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>76.04000000000001</v>
+        <v>158.82</v>
       </c>
       <c r="D20" t="n">
-        <v>130.14</v>
+        <v>235.58</v>
       </c>
       <c r="E20" t="n">
-        <v>25.216</v>
+        <v>15.492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>250.76</v>
+        <v>139.46</v>
       </c>
       <c r="D21" t="n">
-        <v>293.84</v>
+        <v>182.26</v>
       </c>
       <c r="E21" t="n">
-        <v>12.276</v>
+        <v>18.704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>293.84</v>
+        <v>182.26</v>
       </c>
       <c r="D22" t="n">
-        <v>348.04</v>
+        <v>235.56</v>
       </c>
       <c r="E22" t="n">
-        <v>8.976000000000001</v>
+        <v>14.504</v>
       </c>
     </row>
     <row r="23">
@@ -865,36 +865,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>177.26</v>
+        <v>235.56</v>
       </c>
       <c r="D23" t="n">
-        <v>231.66</v>
+        <v>309.36</v>
       </c>
       <c r="E23" t="n">
-        <v>15.844</v>
+        <v>11.204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>209.86</v>
+        <v>235.58</v>
       </c>
       <c r="D24" t="n">
-        <v>277.06</v>
+        <v>304.14</v>
       </c>
       <c r="E24" t="n">
-        <v>12.944</v>
+        <v>12.276</v>
       </c>
     </row>
     <row r="25">
@@ -903,55 +903,55 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>240.44</v>
+        <v>217.82</v>
       </c>
       <c r="D25" t="n">
-        <v>302.64</v>
+        <v>265.6</v>
       </c>
       <c r="E25" t="n">
-        <v>12.376</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>302.64</v>
+        <v>137.74</v>
       </c>
       <c r="D26" t="n">
-        <v>370.64</v>
+        <v>183.48</v>
       </c>
       <c r="E26" t="n">
-        <v>8.176</v>
+        <v>21.552</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>131.5</v>
+        <v>183.48</v>
       </c>
       <c r="D27" t="n">
-        <v>189.82</v>
+        <v>263.16</v>
       </c>
       <c r="E27" t="n">
-        <v>17.928</v>
+        <v>17.184</v>
       </c>
     </row>
     <row r="28">
@@ -960,131 +960,131 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>348.04</v>
+        <v>304.14</v>
       </c>
       <c r="D28" t="n">
-        <v>396.4</v>
+        <v>363.74</v>
       </c>
       <c r="E28" t="n">
-        <v>5.76</v>
+        <v>8.916</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>189.82</v>
+        <v>265.6</v>
       </c>
       <c r="D29" t="n">
-        <v>256.14</v>
+        <v>320.58</v>
       </c>
       <c r="E29" t="n">
-        <v>13.896</v>
+        <v>6.752</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>396.4</v>
+        <v>206.2</v>
       </c>
       <c r="D30" t="n">
-        <v>442.52</v>
+        <v>251.9</v>
       </c>
       <c r="E30" t="n">
-        <v>2.768</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>370.64</v>
+        <v>251.9</v>
       </c>
       <c r="D31" t="n">
-        <v>427.12</v>
+        <v>291.36</v>
       </c>
       <c r="E31" t="n">
-        <v>4.648</v>
+        <v>12.684</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>130.14</v>
+        <v>363.74</v>
       </c>
       <c r="D32" t="n">
-        <v>216.34</v>
+        <v>427.04</v>
       </c>
       <c r="E32" t="n">
-        <v>22.176</v>
+        <v>5.196</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>277.06</v>
+        <v>309.36</v>
       </c>
       <c r="D33" t="n">
-        <v>331.86</v>
+        <v>370.66</v>
       </c>
       <c r="E33" t="n">
-        <v>10.064</v>
+        <v>6.704</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>231.66</v>
+        <v>212.3</v>
       </c>
       <c r="D34" t="n">
-        <v>281.76</v>
+        <v>286</v>
       </c>
       <c r="E34" t="n">
-        <v>12.464</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="35">
@@ -1093,131 +1093,131 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>216.34</v>
+        <v>286</v>
       </c>
       <c r="D35" t="n">
-        <v>279.04</v>
+        <v>337.48</v>
       </c>
       <c r="E35" t="n">
-        <v>18.016</v>
+        <v>12.852</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>279.04</v>
+        <v>263.16</v>
       </c>
       <c r="D36" t="n">
-        <v>320.86</v>
+        <v>317</v>
       </c>
       <c r="E36" t="n">
-        <v>15.464</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>320.86</v>
+        <v>317</v>
       </c>
       <c r="D37" t="n">
-        <v>377.82</v>
+        <v>406.6</v>
       </c>
       <c r="E37" t="n">
-        <v>11.408</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>427.12</v>
+        <v>337.48</v>
       </c>
       <c r="D38" t="n">
-        <v>519.5599999999999</v>
+        <v>404.38</v>
       </c>
       <c r="E38" t="n">
-        <v>0.504</v>
+        <v>9.252000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>519.5599999999999</v>
+        <v>291.36</v>
       </c>
       <c r="D39" t="n">
-        <v>624.95</v>
+        <v>356.06</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>9.304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>281.76</v>
+        <v>356.06</v>
       </c>
       <c r="D40" t="n">
-        <v>359.7</v>
+        <v>405.36</v>
       </c>
       <c r="E40" t="n">
-        <v>7.76</v>
+        <v>6.004</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>331.86</v>
+        <v>370.66</v>
       </c>
       <c r="D41" t="n">
-        <v>403.96</v>
+        <v>411.88</v>
       </c>
       <c r="E41" t="n">
-        <v>6.984</v>
+        <v>3.712</v>
       </c>
     </row>
     <row r="42">
@@ -1226,55 +1226,55 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>442.52</v>
+        <v>427.04</v>
       </c>
       <c r="D42" t="n">
-        <v>513.98</v>
+        <v>478.06</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>2.204</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>513.98</v>
+        <v>411.88</v>
       </c>
       <c r="D43" t="n">
-        <v>577.88</v>
+        <v>469.48</v>
       </c>
       <c r="E43" t="n">
-        <v>26.76</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>624.95</v>
+        <v>469.48</v>
       </c>
       <c r="D44" t="n">
-        <v>693.03</v>
+        <v>535.3</v>
       </c>
       <c r="E44" t="n">
-        <v>26.352</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -1283,55 +1283,55 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>256.14</v>
+        <v>405.36</v>
       </c>
       <c r="D45" t="n">
-        <v>285.42</v>
+        <v>456.98</v>
       </c>
       <c r="E45" t="n">
-        <v>11.608</v>
+        <v>1.972</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>377.82</v>
+        <v>456.98</v>
       </c>
       <c r="D46" t="n">
-        <v>442.9</v>
+        <v>534.9400000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>7.04</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>285.42</v>
+        <v>406.6</v>
       </c>
       <c r="D47" t="n">
-        <v>362.32</v>
+        <v>468.9</v>
       </c>
       <c r="E47" t="n">
-        <v>8.528</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="48">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>359.7</v>
+        <v>535.3</v>
       </c>
       <c r="D48" t="n">
-        <v>403.98</v>
+        <v>619.5599999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>4.952</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="49">
@@ -1359,109 +1359,109 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>403.96</v>
+        <v>468.9</v>
       </c>
       <c r="D49" t="n">
-        <v>470.06</v>
+        <v>518.5</v>
       </c>
       <c r="E49" t="n">
-        <v>4.464</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>577.88</v>
+        <v>320.58</v>
       </c>
       <c r="D50" t="n">
-        <v>656.78</v>
+        <v>383.48</v>
       </c>
       <c r="E50" t="n">
-        <v>23.46</v>
+        <v>2.592</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>362.32</v>
+        <v>404.38</v>
       </c>
       <c r="D51" t="n">
-        <v>447.12</v>
+        <v>446.48</v>
       </c>
       <c r="E51" t="n">
-        <v>4.148</v>
+        <v>6.172</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>693.03</v>
+        <v>478.06</v>
       </c>
       <c r="D52" t="n">
-        <v>747.79</v>
+        <v>574.95</v>
       </c>
       <c r="E52" t="n">
-        <v>23.496</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>447.12</v>
+        <v>574.95</v>
       </c>
       <c r="D53" t="n">
-        <v>492.22</v>
+        <v>636.59</v>
       </c>
       <c r="E53" t="n">
-        <v>0.768</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>492.22</v>
+        <v>383.48</v>
       </c>
       <c r="D54" t="n">
-        <v>562.58</v>
+        <v>474.9</v>
       </c>
       <c r="E54" t="n">
         <v>30</v>
@@ -1469,59 +1469,59 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>442.9</v>
+        <v>474.9</v>
       </c>
       <c r="D55" t="n">
-        <v>514.46</v>
+        <v>528.86</v>
       </c>
       <c r="E55" t="n">
-        <v>2.504</v>
+        <v>26.784</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>470.06</v>
+        <v>534.9400000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>530.26</v>
+        <v>627.78</v>
       </c>
       <c r="E56" t="n">
-        <v>2.024</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>530.26</v>
+        <v>528.86</v>
       </c>
       <c r="D57" t="n">
-        <v>627.51</v>
+        <v>602.28</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>22.572</v>
       </c>
     </row>
     <row r="58">
@@ -1530,93 +1530,93 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>627.51</v>
+        <v>518.5</v>
       </c>
       <c r="D58" t="n">
-        <v>701.75</v>
+        <v>569.66</v>
       </c>
       <c r="E58" t="n">
-        <v>27.216</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>656.78</v>
+        <v>569.66</v>
       </c>
       <c r="D59" t="n">
-        <v>715.28</v>
+        <v>646.39</v>
       </c>
       <c r="E59" t="n">
-        <v>20.22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>403.98</v>
+        <v>627.78</v>
       </c>
       <c r="D60" t="n">
-        <v>470.18</v>
+        <v>681.48</v>
       </c>
       <c r="E60" t="n">
-        <v>0.452</v>
+        <v>22.616</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>470.18</v>
+        <v>602.28</v>
       </c>
       <c r="D61" t="n">
-        <v>551.1799999999999</v>
+        <v>656.6799999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>20.252</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>514.46</v>
+        <v>619.5599999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>610.95</v>
+        <v>673.64</v>
       </c>
       <c r="E62" t="n">
-        <v>30</v>
+        <v>23.396</v>
       </c>
     </row>
     <row r="63">
@@ -1625,36 +1625,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>610.95</v>
+        <v>446.48</v>
       </c>
       <c r="D63" t="n">
-        <v>679.39</v>
+        <v>504.16</v>
       </c>
       <c r="E63" t="n">
-        <v>27.296</v>
+        <v>2.524</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>715.28</v>
+        <v>504.16</v>
       </c>
       <c r="D64" t="n">
-        <v>766.42</v>
+        <v>590.71</v>
       </c>
       <c r="E64" t="n">
-        <v>16.736</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -1663,55 +1663,55 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>679.39</v>
+        <v>590.71</v>
       </c>
       <c r="D65" t="n">
-        <v>738.65</v>
+        <v>649.8099999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>23.5</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>562.58</v>
+        <v>656.6799999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>644.88</v>
+        <v>726.28</v>
       </c>
       <c r="E66" t="n">
-        <v>26.4</v>
+        <v>17.372</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>644.88</v>
+        <v>673.64</v>
       </c>
       <c r="D67" t="n">
-        <v>692.28</v>
+        <v>728.54</v>
       </c>
       <c r="E67" t="n">
-        <v>23.28</v>
+        <v>20.016</v>
       </c>
     </row>
   </sheetData>
